--- a/biology/Zoologie/Geosesarma_aedituens/Geosesarma_aedituens.xlsx
+++ b/biology/Zoologie/Geosesarma_aedituens/Geosesarma_aedituens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Geosesarma aedituens est une espèce de crabe semi-terrestres d'eau douce de la famille des Sesarmidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique de Bali en Indonésie.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre dans les forêts de montagne de l'intérieur de l'île, tous les spécimens actuellement collectés l'ont été à proximité du lac Bratan. Ils vivent dans des terriers et sont très craintifs, les entrées du terrier sont entretenues et parfois dissimulées par un tapis de bryophytes.
 </t>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux spécimen ayant été collectés aux abords d'un temple abandonné, l'épithète spécifique "aedituens" qui en latin signifie « gardien du temple » a été choisi pour désigner l'espèce.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Naruse &amp; Jaafar, 2009 : Geosesarma aedituens, a new terrestrial crab (Crustacea: Decapoda: Brachyura: Sesarmidae) from Bali, Indonesia. Raffles Bulletin of Zoology, vol. 57, no 1, p. 183-187(texte intégral).</t>
         </is>
